--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_4.xlsx
@@ -518,276 +518,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_2</t>
+          <t>model_16_4_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999886155254331</v>
+        <v>0.9999962214685202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.99912306644428</v>
+        <v>0.9990891129968277</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999866186330766</v>
+        <v>0.9999961722588646</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999903413236801</v>
+        <v>0.9999828374871409</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999884644919732</v>
+        <v>0.9999945255879217</v>
       </c>
       <c r="G2" t="n">
-        <v>1.062690728753052e-05</v>
+        <v>3.527093278053644e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008185789813303411</v>
+        <v>0.0008502730341429631</v>
       </c>
       <c r="I2" t="n">
-        <v>1.200162813693846e-05</v>
+        <v>7.976591785078655e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>8.332853592920704e-06</v>
+        <v>6.971934815187074e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>1.016724086492958e-05</v>
+        <v>7.474263300132865e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002555461242533909</v>
+        <v>0.0001257783065716774</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003259893754024894</v>
+        <v>0.001878055717505113</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000030358598845</v>
+        <v>1.000010076083946</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003398674180044093</v>
+        <v>0.001958008437510589</v>
       </c>
       <c r="P2" t="n">
-        <v>88.90424269969809</v>
+        <v>91.11007292041238</v>
       </c>
       <c r="Q2" t="n">
-        <v>129.1271449203487</v>
+        <v>131.332975141063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_3</t>
+          <t>model_16_4_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999896637702823</v>
+        <v>0.9999964306715098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991228740093417</v>
+        <v>0.999088095028137</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999845448992646</v>
+        <v>0.99999534984331</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999895231423418</v>
+        <v>0.9999871763604425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999870089529295</v>
+        <v>0.9999945434442142</v>
       </c>
       <c r="G3" t="n">
-        <v>9.648416733435151e-06</v>
+        <v>3.331811470153435e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008187586108982806</v>
+        <v>0.0008512232632320599</v>
       </c>
       <c r="I3" t="n">
-        <v>1.38615414185017e-05</v>
+        <v>9.690415402110771e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>9.03872519259143e-06</v>
+        <v>5.209352489465846e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>1.145013330554657e-05</v>
+        <v>7.449883945788308e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002476421118014055</v>
+        <v>0.0001224521051715019</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003106190067177981</v>
+        <v>0.001825325031372066</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000027563279247</v>
+        <v>1.000009518209307</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003238427009037612</v>
+        <v>0.00190303289690129</v>
       </c>
       <c r="P3" t="n">
-        <v>89.09743345029652</v>
+        <v>91.22398883369416</v>
       </c>
       <c r="Q3" t="n">
-        <v>129.3203356709471</v>
+        <v>131.4468910543448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_1</t>
+          <t>model_16_4_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999871737152919</v>
+        <v>0.9999964158953428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991226929246496</v>
+        <v>0.9990868513967731</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999883402259527</v>
+        <v>0.9999943230874413</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999912179428734</v>
+        <v>0.9999898530978625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999897694638018</v>
+        <v>0.9999941580829838</v>
       </c>
       <c r="G4" t="n">
-        <v>1.197277376619391e-05</v>
+        <v>3.345604373454022e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008189276455096957</v>
+        <v>0.0008523841385211962</v>
       </c>
       <c r="I4" t="n">
-        <v>1.045754690664809e-05</v>
+        <v>1.183006177232184e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>7.576565758812542e-06</v>
+        <v>4.121980321871768e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>9.017056332730317e-06</v>
+        <v>7.976021047096802e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002635514866290815</v>
+        <v>0.0001195645179491954</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003460169615234766</v>
+        <v>0.001829099333949368</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000034203425888</v>
+        <v>1.000009557612419</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003607476199293855</v>
+        <v>0.001906967879353191</v>
       </c>
       <c r="P4" t="n">
-        <v>88.66575067747951</v>
+        <v>91.21572640209456</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.8886528981301</v>
+        <v>131.4386286227452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_4</t>
+          <t>model_16_4_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999904067362693</v>
+        <v>0.9999962611724744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991222958230357</v>
+        <v>0.9990853937215988</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999822599754795</v>
+        <v>0.9999932736762012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999887583466158</v>
+        <v>0.9999910819708686</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999854720892358</v>
+        <v>0.9999935400352551</v>
       </c>
       <c r="G5" t="n">
-        <v>8.954890597001871e-06</v>
+        <v>3.490031379585784e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008192983224355503</v>
+        <v>0.0008537448143118983</v>
       </c>
       <c r="I5" t="n">
-        <v>1.591086909532328e-05</v>
+        <v>1.401691944677757e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>9.698539291524883e-06</v>
+        <v>3.62277472385673e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>1.280470419342408e-05</v>
+        <v>8.819847085317151e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000240023764886448</v>
+        <v>0.0001192485983683515</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002992472321843908</v>
+        <v>0.001868162567761645</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000025582036615</v>
+        <v>1.000009970206735</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003119868063856483</v>
+        <v>0.001947694115900899</v>
       </c>
       <c r="P5" t="n">
-        <v>89.24662147899954</v>
+        <v>91.13119966101007</v>
       </c>
       <c r="Q5" t="n">
-        <v>129.4695236996502</v>
+        <v>131.3541018816607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_16_4_0</t>
+          <t>model_16_4_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999852247739318</v>
+        <v>0.9999959452985762</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991215737752649</v>
+        <v>0.9990838633071824</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999895054151939</v>
+        <v>0.9999920549439992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999992151854551</v>
+        <v>0.9999911912265377</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999908193798982</v>
+        <v>0.9999926262050411</v>
       </c>
       <c r="G6" t="n">
-        <v>1.379202497722342e-05</v>
+        <v>3.784885798339761e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008199723223353553</v>
+        <v>0.000855173388992102</v>
       </c>
       <c r="I6" t="n">
-        <v>9.412499112772678e-06</v>
+        <v>1.655662339394836e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>6.770849838621941e-06</v>
+        <v>3.578391747508459e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>8.09167447569731e-06</v>
+        <v>1.006750757072841e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002797198157775263</v>
+        <v>0.0001220600611449362</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003713761567093857</v>
+        <v>0.001945478295520092</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000039400602849</v>
+        <v>1.00001081253713</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003871864085551297</v>
+        <v>0.002028301334255642</v>
       </c>
       <c r="P6" t="n">
-        <v>88.38284006610201</v>
+        <v>90.96898968739841</v>
       </c>
       <c r="Q6" t="n">
-        <v>128.6057422867526</v>
+        <v>131.191891908049</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999909145227577</v>
+        <v>0.9999955299047218</v>
       </c>
       <c r="C7" t="n">
-        <v>0.999121445675993</v>
+        <v>0.9990822765303959</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999798618711624</v>
+        <v>0.9999907924752196</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999880545534279</v>
+        <v>0.9999903498107786</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999839074955187</v>
+        <v>0.9999915375668078</v>
       </c>
       <c r="G7" t="n">
-        <v>8.480894199303811e-06</v>
+        <v>4.172637727632476e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008200918973827371</v>
+        <v>0.0008566545754708458</v>
       </c>
       <c r="I7" t="n">
-        <v>1.806170737756441e-05</v>
+        <v>1.918746956146378e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.030572452074416e-05</v>
+        <v>3.920200425100938e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>1.418371594915428e-05</v>
+        <v>1.155383499328236e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002327374647798668</v>
+        <v>0.0001242598741415502</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002912197486315756</v>
+        <v>0.002042703533955056</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000024227939313</v>
+        <v>1.000011920254075</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00303617576238808</v>
+        <v>0.002129665652374772</v>
       </c>
       <c r="P7" t="n">
-        <v>89.35538933137721</v>
+        <v>90.77392434707036</v>
       </c>
       <c r="Q7" t="n">
-        <v>129.5782915520278</v>
+        <v>130.996826567721</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999912382877426</v>
+        <v>0.9999950162709252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991204108668179</v>
+        <v>0.9990806313232575</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999774210357281</v>
+        <v>0.9999894407955976</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999874015254167</v>
+        <v>0.9999887801242585</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999823460057803</v>
+        <v>0.9999902725028067</v>
       </c>
       <c r="G8" t="n">
-        <v>8.178673797540619e-06</v>
+        <v>4.652092330881321e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008210578463248479</v>
+        <v>0.0008581903041182724</v>
       </c>
       <c r="I8" t="n">
-        <v>2.025087081612632e-05</v>
+        <v>2.200422131854337e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.086911298408071e-05</v>
+        <v>4.557854840170657e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>1.555999190010351e-05</v>
+        <v>1.328103807935701e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002259640636874188</v>
+        <v>0.000126294038995078</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002859838071909075</v>
+        <v>0.002156870958328597</v>
       </c>
       <c r="N8" t="n">
-        <v>1.00002336456602</v>
+        <v>1.000013289944199</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002981587299311176</v>
+        <v>0.002248693420363044</v>
       </c>
       <c r="P8" t="n">
-        <v>89.42796109586743</v>
+        <v>90.55638695187579</v>
       </c>
       <c r="Q8" t="n">
-        <v>129.650863316518</v>
+        <v>130.7792891725264</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999914212678214</v>
+        <v>0.9999944995946447</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991192620069852</v>
+        <v>0.999078978101826</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999749911639145</v>
+        <v>0.9999881935780648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999868017140815</v>
+        <v>0.9999868199539387</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999808161394715</v>
+        <v>0.9999890290680189</v>
       </c>
       <c r="G9" t="n">
-        <v>8.007869925947363e-06</v>
+        <v>5.134386959284835e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000822130256549545</v>
+        <v>0.0008597335137565865</v>
       </c>
       <c r="I9" t="n">
-        <v>2.243020108140179e-05</v>
+        <v>2.46032855643143e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>1.138658969341822e-05</v>
+        <v>5.354135653410711e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>1.690839538741e-05</v>
+        <v>1.497871060886251e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002196634393100838</v>
+        <v>0.0001282211131077377</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002829818002265757</v>
+        <v>0.002265918568546724</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000022876619143</v>
+        <v>1.000014667747614</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002950289213153032</v>
+        <v>0.002362383413107829</v>
       </c>
       <c r="P9" t="n">
-        <v>89.47017151819368</v>
+        <v>90.35910021293067</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.6930737388443</v>
+        <v>130.5820024335813</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999914992318707</v>
+        <v>0.9999939225596112</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991180388910849</v>
+        <v>0.9990773598570867</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999726178850062</v>
+        <v>0.9999868879024001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999862472390486</v>
+        <v>0.9999844252419677</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999793372557745</v>
+        <v>0.9999876763743052</v>
       </c>
       <c r="G10" t="n">
-        <v>7.93509390811961e-06</v>
+        <v>5.673023834222058e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008232719815539596</v>
+        <v>0.0008612440741880337</v>
       </c>
       <c r="I10" t="n">
-        <v>2.455877367681224e-05</v>
+        <v>2.732417013103046e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.186495330317723e-05</v>
+        <v>6.326940504276961e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>1.821186348999473e-05</v>
+        <v>1.682555531765371e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002138211223388994</v>
+        <v>0.0001338598081373726</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002816929872772769</v>
+        <v>0.002381811040830498</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000022668715012</v>
+        <v>1.000016206507704</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002936852409305421</v>
+        <v>0.002483209667867213</v>
       </c>
       <c r="P10" t="n">
-        <v>89.48843073876854</v>
+        <v>90.1595765565702</v>
       </c>
       <c r="Q10" t="n">
-        <v>129.7113329594192</v>
+        <v>130.3824787772208</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999991497390627</v>
+        <v>0.9999933129033427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991167917757593</v>
+        <v>0.9990757540342342</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999703339740239</v>
+        <v>0.9999855785088312</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999857316289505</v>
+        <v>0.9999816991819995</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999779228632711</v>
+        <v>0.9999862715490393</v>
       </c>
       <c r="G11" t="n">
-        <v>7.936812628323258e-06</v>
+        <v>6.242111199989346e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008244361089683378</v>
+        <v>0.0008627430393333299</v>
       </c>
       <c r="I11" t="n">
-        <v>2.660719297994437e-05</v>
+        <v>3.005280240152077e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.230978687206912e-05</v>
+        <v>7.434348991415222e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>1.945848992600674e-05</v>
+        <v>1.8743575696468e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002083742563907373</v>
+        <v>0.0001402839279177281</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002817234926008702</v>
+        <v>0.002498421741818092</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000022673624995</v>
+        <v>1.000017832257753</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002937170449289154</v>
+        <v>0.002604784727813277</v>
       </c>
       <c r="P11" t="n">
-        <v>89.48799759100362</v>
+        <v>89.96838419894625</v>
       </c>
       <c r="Q11" t="n">
-        <v>129.7108998116542</v>
+        <v>130.1912864195969</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999914389694515</v>
+        <v>0.9999926975435509</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991155564522678</v>
+        <v>0.9990742201752273</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999681562103222</v>
+        <v>0.9999842871795703</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999852615119919</v>
+        <v>0.9999788923210199</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999765847431838</v>
+        <v>0.9999848684890162</v>
       </c>
       <c r="G12" t="n">
-        <v>7.991346231197777e-06</v>
+        <v>6.816522554412418e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000825589229223126</v>
+        <v>0.0008641748293876443</v>
       </c>
       <c r="I12" t="n">
-        <v>2.856040973774633e-05</v>
+        <v>3.274379063957109e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.271537203295305e-05</v>
+        <v>8.574581307383378e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>2.063789088534969e-05</v>
+        <v>2.065918597347724e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002033568137596766</v>
+        <v>0.0001458864235846504</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002826896926171483</v>
+        <v>0.002610847095180493</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000022829414796</v>
+        <v>1.000019473217198</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002947243780801962</v>
+        <v>0.002721996261220881</v>
       </c>
       <c r="P12" t="n">
-        <v>89.47430264573448</v>
+        <v>89.79232221105809</v>
       </c>
       <c r="Q12" t="n">
-        <v>129.6972048663851</v>
+        <v>130.0152244317087</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999913391176908</v>
+        <v>0.999992093859825</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991143504699973</v>
+        <v>0.9990727226936519</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999660968212301</v>
+        <v>0.9999830666262411</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999848294293784</v>
+        <v>0.9999759846632832</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999753254662567</v>
+        <v>0.9999835044467409</v>
       </c>
       <c r="G13" t="n">
-        <v>8.08455346685711e-06</v>
+        <v>7.380034813876104e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008267149607361875</v>
+        <v>0.0008655726627064607</v>
       </c>
       <c r="I13" t="n">
-        <v>3.040745736864626e-05</v>
+        <v>3.528728961583642e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.308814372944587e-05</v>
+        <v>9.755760332390765e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>2.174780054904606e-05</v>
+        <v>2.25215249741136e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001987173253508042</v>
+        <v>0.0001507966348917139</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002843334919923629</v>
+        <v>0.002716621949016113</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000023095686158</v>
+        <v>1.000021083040467</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002964381573979476</v>
+        <v>0.002832274169568416</v>
       </c>
       <c r="P13" t="n">
-        <v>89.45111059257277</v>
+        <v>89.63346440407128</v>
       </c>
       <c r="Q13" t="n">
-        <v>129.6740128132234</v>
+        <v>129.8563666247219</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999912097832346</v>
+        <v>0.999991516056597</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991131903924942</v>
+        <v>0.9990713133668454</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999641557147121</v>
+        <v>0.9999819181509192</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999844337163857</v>
+        <v>0.9999731562440383</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999741441709166</v>
+        <v>0.9999822071995094</v>
       </c>
       <c r="G14" t="n">
-        <v>8.205281504591861e-06</v>
+        <v>7.91938876469716e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008277978421637668</v>
+        <v>0.0008668882074179993</v>
       </c>
       <c r="I14" t="n">
-        <v>3.214841841814168e-05</v>
+        <v>3.768058594765504e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.342953817357971e-05</v>
+        <v>1.090475027153548e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.27889782958607e-05</v>
+        <v>2.429266810959526e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001945192873430857</v>
+        <v>0.000154903648626802</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00286448625491411</v>
+        <v>0.002814140857295022</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000023440578041</v>
+        <v>1.000022623849075</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0029864333650898</v>
+        <v>0.002933944659664727</v>
       </c>
       <c r="P14" t="n">
-        <v>89.42146505020509</v>
+        <v>89.49239306258156</v>
       </c>
       <c r="Q14" t="n">
-        <v>129.6443672708557</v>
+        <v>129.7152952832322</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999910619160428</v>
+        <v>0.9999910013914189</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991120848332745</v>
+        <v>0.9990699553123638</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999623430530612</v>
+        <v>0.9999809478282673</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999840739845504</v>
+        <v>0.999970408577961</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999973045837572</v>
+        <v>0.9999810579242819</v>
       </c>
       <c r="G15" t="n">
-        <v>8.34330903748714e-06</v>
+        <v>8.399806117151159e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000828829833166953</v>
+        <v>0.0008681558916648859</v>
       </c>
       <c r="I15" t="n">
-        <v>3.377417841683483e-05</v>
+        <v>3.97026316974313e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>1.373989050524046e-05</v>
+        <v>1.202093581741469e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.375703446103764e-05</v>
+        <v>2.586178375742299e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000190699557383468</v>
+        <v>0.0001587589964768583</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002888478671807556</v>
+        <v>0.002898241901075747</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000023834890553</v>
+        <v>1.000023996289549</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00301144718884155</v>
+        <v>0.003021626058992359</v>
       </c>
       <c r="P15" t="n">
-        <v>89.38810130640016</v>
+        <v>89.37460386734583</v>
       </c>
       <c r="Q15" t="n">
-        <v>129.6110035270508</v>
+        <v>129.5975060879964</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999909043225627</v>
+        <v>0.999990476402162</v>
       </c>
       <c r="C16" t="n">
-        <v>0.999111033003291</v>
+        <v>0.9990686684355364</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999606546491435</v>
+        <v>0.9999799468891649</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999837432785279</v>
+        <v>0.9999676942345235</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999720249317586</v>
+        <v>0.9999798902412608</v>
       </c>
       <c r="G16" t="n">
-        <v>8.490415633630135e-06</v>
+        <v>8.889860544119518e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008298116702865543</v>
+        <v>0.0008693571346958257</v>
       </c>
       <c r="I16" t="n">
-        <v>3.528849276758833e-05</v>
+        <v>4.178847876466017e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>1.402520132588674e-05</v>
+        <v>1.312358469336424e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.465684704673754e-05</v>
+        <v>2.745603172901221e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001873552434371259</v>
+        <v>0.0001619721875483848</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002913831778540095</v>
+        <v>0.002981586917082834</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000024255139833</v>
+        <v>1.000025396260901</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00303787962981586</v>
+        <v>0.003108519244878836</v>
       </c>
       <c r="P16" t="n">
-        <v>89.35314520634054</v>
+        <v>89.26119839077441</v>
       </c>
       <c r="Q16" t="n">
-        <v>129.5760474269912</v>
+        <v>129.484100611425</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999907423596769</v>
+        <v>0.9999899939054325</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991100531493845</v>
+        <v>0.9990674690663189</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999590990333365</v>
+        <v>0.9999790366707673</v>
       </c>
       <c r="E17" t="n">
-        <v>0.99998344436355</v>
+        <v>0.9999651629899161</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999971087147048</v>
+        <v>0.9999788190317553</v>
       </c>
       <c r="G17" t="n">
-        <v>8.641600878188563e-06</v>
+        <v>9.340250061941925e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008307263208976745</v>
+        <v>0.0008704766932141334</v>
       </c>
       <c r="I17" t="n">
-        <v>3.668371065134685e-05</v>
+        <v>4.368527385527624e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.428308498044382e-05</v>
+        <v>1.415185325456616e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.548339781589534e-05</v>
+        <v>2.89185635549212e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000184858405205097</v>
+        <v>0.0001646611363007945</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002939659993636775</v>
+        <v>0.003056182269096843</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000024687040862</v>
+        <v>1.000026682918847</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003064807405500981</v>
+        <v>0.003186290275461746</v>
       </c>
       <c r="P17" t="n">
-        <v>89.31784541096883</v>
+        <v>89.16235506570946</v>
       </c>
       <c r="Q17" t="n">
-        <v>129.5407476316195</v>
+        <v>129.3852572863601</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999905782942355</v>
+        <v>0.9999895125424983</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991091342162899</v>
+        <v>0.9990663276170091</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999576547479314</v>
+        <v>0.999978130651299</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999983170092678</v>
+        <v>0.9999626892335221</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999702180680146</v>
+        <v>0.9999777595791387</v>
       </c>
       <c r="G18" t="n">
-        <v>8.794748766013767e-06</v>
+        <v>9.789581231603148e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008315841046049883</v>
+        <v>0.0008715421860410466</v>
       </c>
       <c r="I18" t="n">
-        <v>3.797907729471137e-05</v>
+        <v>4.557331883838743e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>1.451970736486131e-05</v>
+        <v>1.51567683546454e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.624939232978634e-05</v>
+        <v>3.036504359651642e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001826343474809519</v>
+        <v>0.0001670545772144909</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002965594167450052</v>
+        <v>0.003128830649236732</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000025124548705</v>
+        <v>1.000027966553338</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00309184565078463</v>
+        <v>0.00326203144754707</v>
       </c>
       <c r="P18" t="n">
-        <v>89.28271149145959</v>
+        <v>89.06838375490776</v>
       </c>
       <c r="Q18" t="n">
-        <v>129.5056137121102</v>
+        <v>129.2912859755584</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999904185125832</v>
+        <v>0.9999890615346206</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991082826035939</v>
+        <v>0.9990652768100409</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999956333736253</v>
+        <v>0.999977285290764</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999829211726206</v>
+        <v>0.9999603599161636</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999694241172447</v>
+        <v>0.999976767906819</v>
       </c>
       <c r="G19" t="n">
-        <v>8.943897924932632e-06</v>
+        <v>1.021057728848799e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008323790476752171</v>
+        <v>0.0008725230682208093</v>
       </c>
       <c r="I19" t="n">
-        <v>3.916388083671811e-05</v>
+        <v>4.733495727212437e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>1.473445877860555e-05</v>
+        <v>1.610300792460309e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.694916980766182e-05</v>
+        <v>3.171898259836374e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001805855246377739</v>
+        <v>0.0001691309414941875</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002990635037066982</v>
+        <v>0.00319539939420536</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000025550633111</v>
+        <v>1.000029169241012</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0031179525620629</v>
+        <v>0.003331434161805312</v>
       </c>
       <c r="P19" t="n">
-        <v>89.24907810860616</v>
+        <v>88.98417277181669</v>
       </c>
       <c r="Q19" t="n">
-        <v>129.4719803292568</v>
+        <v>129.2070749924673</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999902629509583</v>
+        <v>0.9999886508432557</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991074922421798</v>
+        <v>0.9990642722659159</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999551132982535</v>
+        <v>0.9999765292403336</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999826992094807</v>
+        <v>0.9999581859211326</v>
       </c>
       <c r="F20" t="n">
-        <v>0.99996869453111</v>
+        <v>0.9999758674992318</v>
       </c>
       <c r="G20" t="n">
-        <v>9.089107873347698e-06</v>
+        <v>1.059393965038221e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008331168153624662</v>
+        <v>0.0008734607660671232</v>
       </c>
       <c r="I20" t="n">
-        <v>4.025848074712196e-05</v>
+        <v>4.891048326494514e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>1.49259535845731e-05</v>
+        <v>1.698615084015349e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.759221716584753e-05</v>
+        <v>3.294831705254932e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001787520078974053</v>
+        <v>0.000171108652031955</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003014814732839764</v>
+        <v>0.003254833275358695</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000025965464111</v>
+        <v>1.000030264417985</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003143161637543599</v>
+        <v>0.003393398266324438</v>
       </c>
       <c r="P20" t="n">
-        <v>89.21686759667486</v>
+        <v>88.91045690288563</v>
       </c>
       <c r="Q20" t="n">
-        <v>129.4397698173255</v>
+        <v>129.1333591235363</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999901139641764</v>
+        <v>0.9999882693592891</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991067692909974</v>
+        <v>0.9990633619140739</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999539995092878</v>
+        <v>0.9999758331624554</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999824920925973</v>
+        <v>0.9999561420015146</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999680264735515</v>
+        <v>0.9999750322112677</v>
       </c>
       <c r="G21" t="n">
-        <v>9.228180494525934e-06</v>
+        <v>1.09500381879755e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008337916585573165</v>
+        <v>0.0008743105395517896</v>
       </c>
       <c r="I21" t="n">
-        <v>4.125742809426448e-05</v>
+        <v>5.036103305092279e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>1.5104640043126e-05</v>
+        <v>1.781645316599185e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>2.818103406869524e-05</v>
+        <v>3.408874310845732e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001770664233675118</v>
+        <v>0.0001726969884491236</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003037792042672759</v>
+        <v>0.003309084191732737</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000026362762196</v>
+        <v>1.000031281708562</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003167117139025773</v>
+        <v>0.003449958756523402</v>
       </c>
       <c r="P21" t="n">
-        <v>89.18649731680514</v>
+        <v>88.844335228443</v>
       </c>
       <c r="Q21" t="n">
-        <v>129.4093995374558</v>
+        <v>129.0672374490936</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999899720413362</v>
+        <v>0.9999878959733789</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991061000679416</v>
+        <v>0.9990625009199376</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999529812512485</v>
+        <v>0.9999751409028923</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999823089417589</v>
+        <v>0.9999542278037739</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999674187511123</v>
+        <v>0.9999742191358313</v>
       </c>
       <c r="G22" t="n">
-        <v>9.360659236159489e-06</v>
+        <v>1.129857754544047e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008344163489043528</v>
+        <v>0.0008751142397846769</v>
       </c>
       <c r="I22" t="n">
-        <v>4.217069460913056e-05</v>
+        <v>5.180362588809091e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>1.526265021675419e-05</v>
+        <v>1.859405851912992e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.871667241294237e-05</v>
+        <v>3.519884220361041e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001755635083049845</v>
+        <v>0.0001741174098544618</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003059519445298475</v>
+        <v>0.003361335678780158</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000026741223103</v>
+        <v>1.000032277404323</v>
       </c>
       <c r="O22" t="n">
-        <v>0.00318976952216319</v>
+        <v>0.003504434697549921</v>
       </c>
       <c r="P22" t="n">
-        <v>89.15798967748263</v>
+        <v>88.78166744220825</v>
       </c>
       <c r="Q22" t="n">
-        <v>129.3808918981333</v>
+        <v>129.0045696628589</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999898397279506</v>
+        <v>0.9999875476016282</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991054869912317</v>
+        <v>0.9990617050199293</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999520485472435</v>
+        <v>0.9999745009860974</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999821417383741</v>
+        <v>0.9999524055950028</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999668623631525</v>
+        <v>0.9999734596912245</v>
       </c>
       <c r="G23" t="n">
-        <v>9.484167973707458e-06</v>
+        <v>1.162376728288674e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008349886291021159</v>
+        <v>0.0008758571775064713</v>
       </c>
       <c r="I23" t="n">
-        <v>4.300722847703486e-05</v>
+        <v>5.313714214968181e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>1.540690200438878e-05</v>
+        <v>1.933429515437786e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.920706524071182e-05</v>
+        <v>3.623571865202983e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001741749829567134</v>
+        <v>0.0001754893547832495</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003079637636753301</v>
+        <v>0.003409364645045575</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000027094058798</v>
+        <v>1.000033206395658</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003210744186678645</v>
+        <v>0.003554508356342924</v>
       </c>
       <c r="P23" t="n">
-        <v>89.13177335729111</v>
+        <v>88.72491730459059</v>
       </c>
       <c r="Q23" t="n">
-        <v>129.3546755779417</v>
+        <v>128.9478195252412</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999897140010954</v>
+        <v>0.9999872453584356</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991049248231576</v>
+        <v>0.9990609940158218</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999511999702128</v>
+        <v>0.9999739500529243</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999819866642746</v>
+        <v>0.9999508192042327</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999966354714911</v>
+        <v>0.9999728032374285</v>
       </c>
       <c r="G24" t="n">
-        <v>9.601528474311706e-06</v>
+        <v>1.190589803630131e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008355133883229739</v>
+        <v>0.0008765208686313078</v>
       </c>
       <c r="I24" t="n">
-        <v>4.376830961522229e-05</v>
+        <v>5.428522632448426e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>1.554068946393977e-05</v>
+        <v>1.997873534396978e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>2.965449953958103e-05</v>
+        <v>3.713198083422702e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00017295256483878</v>
+        <v>0.0001768103868001765</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003098633323630227</v>
+        <v>0.003450492433885533</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000027429330412</v>
+        <v>1.000034012377505</v>
       </c>
       <c r="O24" t="n">
-        <v>0.003230548559272414</v>
+        <v>0.003597387040300058</v>
       </c>
       <c r="P24" t="n">
-        <v>89.10717651217976</v>
+        <v>88.67695329465955</v>
       </c>
       <c r="Q24" t="n">
-        <v>129.3300787328304</v>
+        <v>128.8998555153102</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999895984460261</v>
+        <v>0.9999869614540163</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991044083110735</v>
+        <v>0.999060345644455</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999504338062229</v>
+        <v>0.9999734358726874</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999818520412023</v>
+        <v>0.9999493319289813</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999658990071547</v>
+        <v>0.9999721895771798</v>
       </c>
       <c r="G25" t="n">
-        <v>9.709394059184702e-06</v>
+        <v>1.217091034969108e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008359955296812368</v>
+        <v>0.0008771260948420191</v>
       </c>
       <c r="I25" t="n">
-        <v>4.445547523511445e-05</v>
+        <v>5.535672142003416e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>1.565683315843126e-05</v>
+        <v>2.058291179470198e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.005615419677285e-05</v>
+        <v>3.796981660736807e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001718210476181642</v>
+        <v>0.0001782738729720233</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003115990060828934</v>
+        <v>0.003488683182762671</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000027737477264</v>
+        <v>1.000034769455956</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00324864420870707</v>
+        <v>0.003637203648422645</v>
       </c>
       <c r="P25" t="n">
-        <v>89.08483336279944</v>
+        <v>88.6329237019881</v>
       </c>
       <c r="Q25" t="n">
-        <v>129.3077355834501</v>
+        <v>128.8558259226387</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999989490966804</v>
+        <v>0.9999867133278044</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991039430966733</v>
+        <v>0.9990597477981141</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999497311393599</v>
+        <v>0.9999729883191381</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999817261494314</v>
+        <v>0.9999479907175527</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999654798797083</v>
+        <v>0.9999716484932789</v>
       </c>
       <c r="G26" t="n">
-        <v>9.809721195203003e-06</v>
+        <v>1.240252527711264e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008364297869032145</v>
+        <v>0.0008776841581588714</v>
       </c>
       <c r="I26" t="n">
-        <v>4.508569085078702e-05</v>
+        <v>5.628937382238903e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>1.5765444075741e-05</v>
+        <v>2.112775267730497e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.0425567463264e-05</v>
+        <v>3.8708563249847e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001708147659914853</v>
+        <v>0.0001796039909096017</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003132047444596426</v>
+        <v>0.003521721919333302</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000028024088523</v>
+        <v>1.000035431125855</v>
       </c>
       <c r="O26" t="n">
-        <v>0.003265385188544911</v>
+        <v>0.003671648912408701</v>
       </c>
       <c r="P26" t="n">
-        <v>89.06427341051895</v>
+        <v>88.59522090941472</v>
       </c>
       <c r="Q26" t="n">
-        <v>129.2871756311696</v>
+        <v>128.8181231300653</v>
       </c>
     </row>
   </sheetData>
